--- a/pred_ohlcv/54_21/2019-10-26 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 POWR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>22934789.8864</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>22937094.8864</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>22937094.8864</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>22937490.8864</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -964,7 +964,7 @@
         <v>40448040.78</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>40448040.78</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>40448040.78</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>40448040.78</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>40448040.78</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>55557911.3977</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>34225671.0526</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>34225637.942</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>34439048.97069999</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>34435738.75449999</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>34405319.98409999</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>34405319.98409999</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>34406072.00439999</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>34406072.00439999</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>34406072.00439999</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>34423661.98359999</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>34354799.72969999</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>34331940.38779999</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>34338040.38779999</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>34338740.38779999</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>34335573.38789999</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>34337818.9334</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>34341338.9334</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>34336538.9334</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>34336538.9334</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>34051964.59410002</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>34051964.59410002</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>34046492.59410002</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>34046492.59410002</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>34069186.13360002</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>34071029.13360002</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 POWR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>22934789.8864</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>22937094.8864</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>22937094.8864</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>22937490.8864</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -964,7 +964,7 @@
         <v>40448040.78</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>40448040.78</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>40448040.78</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>40448040.78</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>40448040.78</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>55557911.3977</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>34137911.3977</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>34225671.0526</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>34225637.942</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>34447141.31379998</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>34439048.97069999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>34404138.12029999</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>34405319.98409999</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>34406072.00439999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>34406072.00439999</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>34406072.00439999</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>34423661.98359999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>34354799.72969999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>34331940.38779999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>34338040.38779999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>34335573.38789999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>34337818.9334</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>34341338.9334</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>34336538.9334</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>34051964.59410002</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>34051964.59410002</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>34046492.59410002</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>34046492.59410002</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>34069186.13360002</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>34071029.13360002</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
